--- a/test_files/Valid_Code_list_with_codes.xlsx
+++ b/test_files/Valid_Code_list_with_codes.xlsx
@@ -80,15 +80,39 @@
     <t>LICENSE</t>
   </si>
   <si>
-    <t>Koodisto 7000</t>
+    <t>Koodisto7000</t>
   </si>
   <si>
     <t>P1;P10;P11</t>
   </si>
   <si>
+    <t>BROADER</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>testikoodi01</t>
+  </si>
+  <si>
     <t>VALID</t>
   </si>
   <si>
+    <t>Testikoodi 01</t>
+  </si>
+  <si>
+    <t>Kuvaus</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>koodisto7000</t>
   </si>
   <si>
@@ -98,34 +122,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Kuvaus</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>xxxx</t>
   </si>
   <si>
     <t>yyyyy</t>
-  </si>
-  <si>
-    <t>BROADER</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
-    <t>testikoodi01</t>
-  </si>
-  <si>
-    <t>Testikoodi 01</t>
   </si>
   <si>
     <t>testikoodi02</t>
@@ -189,28 +189,15 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,33 +220,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,15 +264,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="11" max="11" width="17.14"/>
-    <col customWidth="1" min="12" max="12" width="17.0"/>
-    <col customWidth="1" min="14" max="14" width="18.57"/>
-    <col customWidth="1" min="15" max="15" width="19.14"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="18.75">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -359,46 +333,55 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="7">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="6">
         <v>43161.0</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>43189.0</v>
       </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -412,21 +395,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" ht="18.75">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -447,7 +430,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -456,247 +439,247 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="18.75">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="8">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5">
         <v>43133.0</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="5">
         <v>43352.0</v>
       </c>
     </row>
-    <row r="3" ht="18.75">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" ht="18.75">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" ht="18.75">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" ht="18.75">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" ht="18.75">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" ht="18.75">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" ht="18.75">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" ht="18.75">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" ht="18.75">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/test_files/Valid_Code_list_with_codes.xlsx
+++ b/test_files/Valid_Code_list_with_codes.xlsx
@@ -23,58 +23,112 @@
     <t>ID</t>
   </si>
   <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>PREFLABEL_SV</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_FI</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_SV</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_EN</t>
+  </si>
+  <si>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>testikoodi01</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>Testikoodi 01</t>
+  </si>
+  <si>
+    <t>Kuvaus</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>testikoodi02</t>
+  </si>
+  <si>
+    <t>Testikoodi 02</t>
+  </si>
+  <si>
+    <t>testikoodi03</t>
+  </si>
+  <si>
+    <t>Testikoodi 03</t>
+  </si>
+  <si>
+    <t>testikoodi04</t>
+  </si>
+  <si>
+    <t>Testikoodi 04</t>
+  </si>
+  <si>
+    <t>testikoodi05</t>
+  </si>
+  <si>
+    <t>Testikoodi 05</t>
+  </si>
+  <si>
+    <t>testikoodi06</t>
+  </si>
+  <si>
+    <t>Testikoodi 06</t>
+  </si>
+  <si>
+    <t>testikoodi07</t>
+  </si>
+  <si>
+    <t>Testikoodi 07</t>
+  </si>
+  <si>
+    <t>testikoodi08</t>
+  </si>
+  <si>
+    <t>Testikoodi 08</t>
+  </si>
+  <si>
+    <t>testikoodi09</t>
+  </si>
+  <si>
+    <t>Testikoodi 09</t>
+  </si>
+  <si>
+    <t>testikoodi10</t>
+  </si>
+  <si>
+    <t>Testikoodi 10</t>
+  </si>
+  <si>
     <t>ORGANIZATION</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
-    <t>PREFLABEL_SV</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_FI</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_SV</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_EN</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
-  </si>
-  <si>
-    <t>testikoodi01</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>Testikoodi 01</t>
-  </si>
-  <si>
-    <t>Kuvaus</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
+    <t>INFORMATIONDOMAIN</t>
   </si>
   <si>
     <t>VERSION</t>
@@ -119,73 +173,19 @@
     <t>P1;P10;P11</t>
   </si>
   <si>
-    <t>testikoodi02</t>
-  </si>
-  <si>
-    <t>Testikoodi 02</t>
-  </si>
-  <si>
-    <t>testikoodi03</t>
-  </si>
-  <si>
-    <t>Testikoodi 03</t>
-  </si>
-  <si>
-    <t>testikoodi04</t>
-  </si>
-  <si>
-    <t>Testikoodi 04</t>
-  </si>
-  <si>
-    <t>testikoodi05</t>
-  </si>
-  <si>
-    <t>Testikoodi 05</t>
-  </si>
-  <si>
-    <t>testikoodi06</t>
-  </si>
-  <si>
-    <t>Testikoodi 06</t>
-  </si>
-  <si>
-    <t>testikoodi07</t>
-  </si>
-  <si>
-    <t>Testikoodi 07</t>
-  </si>
-  <si>
-    <t>testikoodi08</t>
-  </si>
-  <si>
-    <t>Testikoodi 08</t>
-  </si>
-  <si>
     <t>koodisto7000</t>
   </si>
   <si>
     <t>Määritelmä</t>
   </si>
   <si>
-    <t>testikoodi09</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
     <t>xxxx</t>
   </si>
   <si>
-    <t>Testikoodi 09</t>
-  </si>
-  <si>
     <t>yyyyy</t>
-  </si>
-  <si>
-    <t>testikoodi10</t>
-  </si>
-  <si>
-    <t>Testikoodi 10</t>
   </si>
 </sst>
 </file>
@@ -233,11 +233,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -278,114 +278,114 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5">
         <v>1.0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R2" s="6">
         <v>43161.0</v>
@@ -1422,83 +1422,83 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>43133.0</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>43352.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1511,18 +1511,18 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1557,18 +1557,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1581,16 +1581,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1603,18 +1603,18 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1627,18 +1627,18 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1651,18 +1651,18 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1675,18 +1675,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
